--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marte\Documents\Programmeertheorie\Sjips\progtheorie1110\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33074CB-A231-4C67-89A2-5C7D06D3EE16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F0120B-2EA5-49FB-AB6E-3C9EE165E8F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526AFF54-0680-4971-96F1-F7231E2C092D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
+    <sheet name="xyz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="31">
   <si>
     <t>Netlist</t>
   </si>
@@ -96,6 +97,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>straight_random</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Hoe vaak runnen</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>upperbound 18</t>
+  </si>
+  <si>
+    <t>lowerbound 1</t>
+  </si>
+  <si>
+    <t>crash</t>
   </si>
 </sst>
 </file>
@@ -154,15 +182,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:F28" totalsRowShown="0">
-  <autoFilter ref="A1:F28" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6EE6E76C-5851-4BD4-86EA-C6FD5DD17C54}" name="Chip"/>
     <tableColumn id="2" xr3:uid="{A63AFADB-AE08-40FB-ADD8-92D7DB5B63D0}" name="Netlist"/>
     <tableColumn id="4" xr3:uid="{2605193A-1BB8-4E6F-8B55-CCAFB7B9317D}" name="Ordening"/>
     <tableColumn id="6" xr3:uid="{280927CD-4C34-4822-A27F-2F892F8EEB2C}" name="Heuristiek"/>
     <tableColumn id="5" xr3:uid="{0C96338E-3B94-4CF3-A71A-E52D0A4DB411}" name="Percentage"/>
+    <tableColumn id="7" xr3:uid="{AF0F139F-0A80-46FE-BB3D-C18CF6548D3D}" name="None"/>
     <tableColumn id="3" xr3:uid="{CE761EDF-AEDC-4472-9E96-DE43A933B1E8}" name="Cost"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD2D2CEE-1F8E-4100-9BC1-A6584621C32B}" name="Tabel13" displayName="Tabel13" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28" xr:uid="{885BF983-6A75-4592-A522-03E06D7FB9CA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8C557F85-13C0-475C-A330-5F59982F63A9}" name="Chip"/>
+    <tableColumn id="2" xr3:uid="{C13EF764-EADF-4E5C-B59D-E2910935022C}" name="Netlist"/>
+    <tableColumn id="4" xr3:uid="{D798218C-A41C-487F-BE7D-839B5BA587EF}" name="Ordening"/>
+    <tableColumn id="6" xr3:uid="{01073A9B-C1C5-4328-85C6-CA4CCD10B4F7}" name="Hoe vaak runnen"/>
+    <tableColumn id="5" xr3:uid="{FA448100-FF67-44F0-8897-92F6C6E0CFB8}" name="Percentage"/>
+    <tableColumn id="3" xr3:uid="{80D7E112-A0F1-4E1F-81F7-21B3BDDBE775}" name="Cost"/>
+    <tableColumn id="9" xr3:uid="{A6D590DD-88A4-4D8D-B4E1-486CD2FFEB0B}" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BCB7C7-01D1-42CD-8042-D38F0D9DFC4F}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +522,592 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f>26/30*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f>21/30*100</f>
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>26/30*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f>26/30*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f>26/30*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <f>20/30*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f>6/30*100</f>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <f>23/50*100</f>
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <f>28/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f>23/50*100</f>
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <f>23/50*100</f>
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <f>23/50*100</f>
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <f>28/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <f>9/50*100</f>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF10267-ECFF-46AD-9370-DDD7C2491942}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -499,8 +1126,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -508,16 +1138,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -525,13 +1158,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -539,13 +1178,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -553,13 +1198,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -567,13 +1218,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -581,13 +1238,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -595,13 +1258,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -609,13 +1278,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -623,19 +1298,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -643,13 +1318,17 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>19/30*100</f>
+        <v>63.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -657,13 +1336,20 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>9.5/30*100</f>
+        <v>31.666666666666664</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -671,69 +1357,81 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>16/30*100</f>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>10/30*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>10/30*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -741,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -755,20 +1453,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <f>6/30*100</f>
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -776,13 +1467,17 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>9/50*100</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -790,13 +1485,20 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>7.4/50*100</f>
+        <v>14.800000000000002</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -804,69 +1506,81 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>13/50*100</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>16/50*100</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>15.3/50*100</f>
+        <v>30.599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -874,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -888,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vince/Documents/cjips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2544CB-DA90-0A4B-8796-C9AFEE083A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5906AF0-9464-4445-9495-D0A21359648D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{526AFF54-0680-4971-96F1-F7231E2C092D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
   <si>
     <t>Netlist</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>straight_first</t>
+  </si>
+  <si>
+    <t>Algoritm</t>
+  </si>
+  <si>
+    <t>xyz_move</t>
+  </si>
+  <si>
+    <t>hillclimb</t>
+  </si>
+  <si>
+    <t>percentage solved</t>
   </si>
 </sst>
 </file>
@@ -124,11 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -147,15 +160,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:H37" totalsRowShown="0">
+  <autoFilter ref="A1:H37" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6EE6E76C-5851-4BD4-86EA-C6FD5DD17C54}" name="Chip"/>
     <tableColumn id="2" xr3:uid="{A63AFADB-AE08-40FB-ADD8-92D7DB5B63D0}" name="Netlist"/>
     <tableColumn id="4" xr3:uid="{2605193A-1BB8-4E6F-8B55-CCAFB7B9317D}" name="Ordening"/>
     <tableColumn id="6" xr3:uid="{280927CD-4C34-4822-A27F-2F892F8EEB2C}" name="Loops"/>
     <tableColumn id="7" xr3:uid="{AF0F139F-0A80-46FE-BB3D-C18CF6548D3D}" name="Count"/>
+    <tableColumn id="12" xr3:uid="{B9621100-DF7C-6147-8A89-CC9C0E137F8D}" name="percentage solved"/>
     <tableColumn id="3" xr3:uid="{CE761EDF-AEDC-4472-9E96-DE43A933B1E8}" name="Cost"/>
+    <tableColumn id="10" xr3:uid="{A93A09AB-D848-2E4A-9CC3-BB3ED3ACA31B}" name="Algoritm"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BCB7C7-01D1-42CD-8042-D38F0D9DFC4F}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,9 +503,10 @@
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -507,10 +523,16 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -527,13 +549,19 @@
         <v>5</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -550,10 +578,16 @@
         <v>5</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -570,10 +604,16 @@
         <v>5</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>22.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -590,10 +630,16 @@
         <v>5</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>22.712</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -610,10 +656,16 @@
         <v>5</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -630,10 +682,16 @@
         <v>5</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -650,10 +708,16 @@
         <v>5</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>22.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -670,10 +734,16 @@
         <v>5</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>21.974</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -690,10 +760,16 @@
         <v>5</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -710,10 +786,16 @@
         <v>5</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -730,10 +812,17 @@
         <v>19</v>
       </c>
       <c r="F12">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="G12">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -750,10 +839,17 @@
         <v>20</v>
       </c>
       <c r="F13">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13">
         <v>238.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -770,10 +866,17 @@
         <v>19.22</v>
       </c>
       <c r="F14">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.64066666666666661</v>
+      </c>
+      <c r="G14">
         <v>221.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -790,10 +893,17 @@
         <v>19.300999999999998</v>
       </c>
       <c r="F15">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.64336666666666664</v>
+      </c>
+      <c r="G15">
         <v>222.47900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -810,10 +920,17 @@
         <v>16</v>
       </c>
       <c r="F16">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G16">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -830,10 +947,17 @@
         <v>19.899999999999999</v>
       </c>
       <c r="F17">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.66333333333333333</v>
+      </c>
+      <c r="G17">
         <v>233.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -850,10 +974,17 @@
         <v>20.07</v>
       </c>
       <c r="F18">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G18">
         <v>226.38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -870,10 +1001,17 @@
         <v>20.105</v>
       </c>
       <c r="F19">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.67016666666666669</v>
+      </c>
+      <c r="G19">
         <v>228.61199999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -890,10 +1028,17 @@
         <v>22</v>
       </c>
       <c r="F20">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G20">
         <v>240</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -910,10 +1055,17 @@
         <v>26</v>
       </c>
       <c r="F21">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G21">
         <v>315</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -930,10 +1082,17 @@
         <v>26</v>
       </c>
       <c r="F22">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.52</v>
+      </c>
+      <c r="G22">
         <v>407</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -950,10 +1109,17 @@
         <v>27.7</v>
       </c>
       <c r="F23">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.55399999999999994</v>
+      </c>
+      <c r="G23">
         <v>328.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -970,10 +1136,17 @@
         <v>22.72</v>
       </c>
       <c r="F24">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.45439999999999997</v>
+      </c>
+      <c r="G24">
         <v>339.67</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -990,10 +1163,17 @@
         <v>22.655000000000001</v>
       </c>
       <c r="F25">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.4531</v>
+      </c>
+      <c r="G25">
         <v>340.97</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1010,10 +1190,17 @@
         <v>28</v>
       </c>
       <c r="F26">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G26">
         <v>397</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1030,10 +1217,17 @@
         <v>26.1</v>
       </c>
       <c r="F27">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G27">
         <v>390.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1050,10 +1244,17 @@
         <v>24.76</v>
       </c>
       <c r="F28">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.49520000000000003</v>
+      </c>
+      <c r="G28">
         <v>354.02</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1070,10 +1271,17 @@
         <v>26</v>
       </c>
       <c r="F29">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.52</v>
+      </c>
+      <c r="G29">
         <v>398</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1298,166 @@
         <v>24</v>
       </c>
       <c r="F30">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.48</v>
+      </c>
+      <c r="G30">
         <v>349</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>389</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.74</v>
+      </c>
+      <c r="G34">
+        <v>601</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>39</v>
+      </c>
+      <c r="F35" s="2">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.78</v>
+      </c>
+      <c r="G35">
+        <v>784</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <f>Tabel1[[#This Row],[Count]]/60</f>
+        <v>0.7</v>
+      </c>
+      <c r="G36">
+        <v>698</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <f>Tabel1[[#This Row],[Count]]/70</f>
+        <v>0.52857142857142858</v>
+      </c>
+      <c r="G37">
+        <v>658</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vince/Documents/cjips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5906AF0-9464-4445-9495-D0A21359648D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B639832-5054-084E-BD35-E4EE79740245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{526AFF54-0680-4971-96F1-F7231E2C092D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="25">
   <si>
     <t>Netlist</t>
   </si>
@@ -160,8 +160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:H37" totalsRowShown="0">
-  <autoFilter ref="A1:H37" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:H44" totalsRowShown="0">
+  <autoFilter ref="A1:H44" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6EE6E76C-5851-4BD4-86EA-C6FD5DD17C54}" name="Chip"/>
     <tableColumn id="2" xr3:uid="{A63AFADB-AE08-40FB-ADD8-92D7DB5B63D0}" name="Netlist"/>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BCB7C7-01D1-42CD-8042-D38F0D9DFC4F}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1348,6 +1348,16 @@
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <f>Tabel1[[#This Row],[Count]]/40</f>
+        <v>0.875</v>
+      </c>
+      <c r="G33">
+        <v>471</v>
+      </c>
       <c r="H33" t="s">
         <v>23</v>
       </c>
@@ -1457,6 +1467,168 @@
         <v>658</v>
       </c>
       <c r="H37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <f>Tabel1[[#This Row],[Count]]/30</f>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>407</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <f>Tabel1[[#This Row],[Count]]/40</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G39">
+        <v>429</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G40">
+        <v>398</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <f>Tabel1[[#This Row],[Count]]/50</f>
+        <v>0.8</v>
+      </c>
+      <c r="G41">
+        <v>753</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <f>Tabel1[[#This Row],[Count]]/60</f>
+        <v>0.6</v>
+      </c>
+      <c r="G42">
+        <v>534</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <f>Tabel1[[#This Row],[Count]]/70</f>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="G43">
+        <v>657</v>
+      </c>
+      <c r="H43" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vince/Documents/cjips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B639832-5054-084E-BD35-E4EE79740245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22786986-FA54-6C4F-9901-4E8D37473D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{526AFF54-0680-4971-96F1-F7231E2C092D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
   <si>
     <t>Netlist</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>percentage solved</t>
+  </si>
+  <si>
+    <t>Heuristic A*</t>
+  </si>
+  <si>
+    <t>manhattan distance</t>
   </si>
 </sst>
 </file>
@@ -160,9 +166,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:H44" totalsRowShown="0">
-  <autoFilter ref="A1:H44" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D18A9BD-2EEB-4F56-8B35-F1CDAC8039EF}" name="Tabel1" displayName="Tabel1" ref="A1:I44" totalsRowShown="0">
+  <autoFilter ref="A1:I44" xr:uid="{65509A2C-8225-4EF9-A67B-841B7414C92B}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6EE6E76C-5851-4BD4-86EA-C6FD5DD17C54}" name="Chip"/>
     <tableColumn id="2" xr3:uid="{A63AFADB-AE08-40FB-ADD8-92D7DB5B63D0}" name="Netlist"/>
     <tableColumn id="4" xr3:uid="{2605193A-1BB8-4E6F-8B55-CCAFB7B9317D}" name="Ordening"/>
@@ -171,6 +177,7 @@
     <tableColumn id="12" xr3:uid="{B9621100-DF7C-6147-8A89-CC9C0E137F8D}" name="percentage solved"/>
     <tableColumn id="3" xr3:uid="{CE761EDF-AEDC-4472-9E96-DE43A933B1E8}" name="Cost"/>
     <tableColumn id="10" xr3:uid="{A93A09AB-D848-2E4A-9CC3-BB3ED3ACA31B}" name="Algoritm"/>
+    <tableColumn id="15" xr3:uid="{202CEE5F-C4FA-7241-9371-D9560DEBCA31}" name="Heuristic A*"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BCB7C7-01D1-42CD-8042-D38F0D9DFC4F}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,9 +511,10 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -531,8 +539,11 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -557,11 +568,11 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -587,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -613,7 +624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -639,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -665,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -691,7 +702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -717,7 +728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -743,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -769,7 +780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -795,7 +806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -822,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -849,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -876,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -903,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -930,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -957,7 +968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -984,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1146,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1334,8 +1345,11 @@
       <c r="H32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1361,8 +1375,11 @@
       <c r="H33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1388,8 +1405,11 @@
       <c r="H34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1415,8 +1435,11 @@
       <c r="H35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="H36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1469,8 +1495,11 @@
       <c r="H37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1496,8 +1525,11 @@
       <c r="H38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1523,8 +1555,11 @@
       <c r="H39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1550,8 +1585,11 @@
       <c r="H40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1577,8 +1615,11 @@
       <c r="H41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1604,8 +1645,11 @@
       <c r="H42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1630,6 +1674,9 @@
       </c>
       <c r="H43" t="s">
         <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vince/Documents/cjips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59120CCD-EF80-B34B-9035-838888B23C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ABC48A-5510-6C43-A776-147B25802944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="0" windowWidth="16360" windowHeight="16000" xr2:uid="{526AFF54-0680-4971-96F1-F7231E2C092D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{526AFF54-0680-4971-96F1-F7231E2C092D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BCB7C7-01D1-42CD-8042-D38F0D9DFC4F}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1377,7 @@
         <v>0.875</v>
       </c>
       <c r="G33">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="I33" t="s">
         <v>27</v>
@@ -1400,14 +1400,14 @@
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2">
         <f>Tabel1[[#This Row],[Count]]/50</f>
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G34">
-        <v>601</v>
+        <v>915</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -1437,7 +1437,7 @@
         <v>0.78</v>
       </c>
       <c r="G35">
-        <v>784</v>
+        <v>1082</v>
       </c>
       <c r="I35" t="s">
         <v>27</v>
@@ -1460,14 +1460,14 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36">
         <f>Tabel1[[#This Row],[Count]]/60</f>
-        <v>0.7</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="G36">
-        <v>698</v>
+        <v>1178</v>
       </c>
       <c r="I36" t="s">
         <v>27</v>
@@ -1490,14 +1490,14 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <f>Tabel1[[#This Row],[Count]]/70</f>
-        <v>0.52857142857142858</v>
+        <v>0.55714285714285716</v>
       </c>
       <c r="G37">
-        <v>658</v>
+        <v>1555</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -1510,7 +1510,7 @@
       <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -1520,14 +1520,14 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <f>Tabel1[[#This Row],[Count]]/30</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G38">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
@@ -1540,7 +1540,7 @@
       <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" t="s">
@@ -1550,14 +1550,14 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <f>Tabel1[[#This Row],[Count]]/40</f>
-        <v>0.82499999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="G39">
-        <v>429</v>
+        <v>691</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -1570,7 +1570,7 @@
       <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>3</v>
       </c>
       <c r="C40" t="s">
@@ -1580,14 +1580,14 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F40">
         <f>Tabel1[[#This Row],[Count]]/50</f>
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="G40">
-        <v>398</v>
+        <v>893</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -1600,7 +1600,7 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -1610,14 +1610,14 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41">
         <f>Tabel1[[#This Row],[Count]]/50</f>
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="G41">
-        <v>753</v>
+        <v>1088</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -1630,7 +1630,7 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -1640,14 +1640,14 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F42">
         <f>Tabel1[[#This Row],[Count]]/60</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G42">
-        <v>534</v>
+        <v>1130</v>
       </c>
       <c r="I42" t="s">
         <v>27</v>
@@ -1660,7 +1660,7 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>3</v>
       </c>
       <c r="C43" t="s">
@@ -1670,14 +1670,14 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43">
         <f>Tabel1[[#This Row],[Count]]/70</f>
-        <v>0.55714285714285716</v>
+        <v>0.54285714285714282</v>
       </c>
       <c r="G43">
-        <v>657</v>
+        <v>1545</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\Programmeertheorie\sjips\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7DC790-0295-40F2-8C1B-E8218367CD85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-8736" yWindow="3960" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xyz" sheetId="3" r:id="rId1"/>
     <sheet name="oude xyz" sheetId="1" r:id="rId2"/>
     <sheet name="astar" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Emma Caarls</author>
   </authors>
   <commentList>
-    <comment ref="G32" authorId="0">
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="43">
   <si>
     <t>Netlist</t>
   </si>
@@ -161,11 +173,35 @@
   <si>
     <t>manhattan_distance</t>
   </si>
+  <si>
+    <t xml:space="preserve">Leuk verschil met Manhattan distance </t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>LET OP! Geen verschil</t>
+  </si>
+  <si>
+    <t>Most common beter?</t>
+  </si>
+  <si>
+    <t>50 kabels</t>
+  </si>
+  <si>
+    <t>30 kabel</t>
+  </si>
+  <si>
+    <t>Duurt lang</t>
+  </si>
+  <si>
+    <t>60 kabels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,53 +272,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:H43" totalsRowShown="0">
-  <autoFilter ref="A1:H43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel3" displayName="Tabel3" ref="A1:H43" totalsRowShown="0">
+  <autoFilter ref="A1:H43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Chip"/>
-    <tableColumn id="2" name="Netlist"/>
-    <tableColumn id="3" name="Ordening"/>
-    <tableColumn id="4" name="A* heuristiek"/>
-    <tableColumn id="5" name="Hillclimber?"/>
-    <tableColumn id="6" name="Aantal wires"/>
-    <tableColumn id="7" name="Percentage wires" dataDxfId="0"/>
-    <tableColumn id="8" name="Cost"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Chip"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Netlist"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ordening"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A* heuristiek"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hillclimber?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Aantal wires"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Percentage wires" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:I38" totalsRowShown="0">
-  <autoFilter ref="A1:I38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel1" displayName="Tabel1" ref="A1:I38" totalsRowShown="0">
+  <autoFilter ref="A1:I38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Chip"/>
-    <tableColumn id="2" name="Netlist"/>
-    <tableColumn id="4" name="Ordening"/>
-    <tableColumn id="6" name="Loops"/>
-    <tableColumn id="7" name="Count"/>
-    <tableColumn id="12" name="percentage solved"/>
-    <tableColumn id="3" name="Cost"/>
-    <tableColumn id="10" name="Algoritm"/>
-    <tableColumn id="15" name="Heuristic A*"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Chip"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Netlist"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Ordening"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Loops"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Count"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="percentage solved"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cost"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Algoritm"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Heuristic A*"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:I28" totalsRowShown="0">
-  <autoFilter ref="A1:I28"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Chip"/>
-    <tableColumn id="2" name="Netlist"/>
-    <tableColumn id="4" name="Ordening"/>
-    <tableColumn id="6" name="Heuristiek"/>
-    <tableColumn id="5" name="Layers?"/>
-    <tableColumn id="3" name="Hillclimbing?"/>
-    <tableColumn id="8" name="Aantal wires"/>
-    <tableColumn id="7" name="Percentage wires"/>
-    <tableColumn id="9" name="Cost"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel13" displayName="Tabel13" ref="A1:J121" totalsRowShown="0">
+  <autoFilter ref="A1:J121" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Chip"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Netlist"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Ordening"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Heuristiek"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Layers?"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Hillclimbing?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Aantal wires"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Percentage wires"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Cost"/>
+    <tableColumn id="10" xr3:uid="{114FCC07-DC9D-4C8F-AE63-62D8BF70E1C7}" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -577,14 +614,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1219,10 +1256,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -2220,12 +2257,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2237,11 +2268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,7 +2288,7 @@
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2285,8 +2316,11 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2305,8 +2339,24 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <f>19/30*100</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="I2">
+        <v>521</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>21</v>
@@ -2320,8 +2370,18 @@
       <c r="F3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <f>19/30*100</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="I3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>21</v>
@@ -2335,8 +2395,18 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <f>24/30*100</f>
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>21</v>
@@ -2350,8 +2420,18 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f>24/30*100</f>
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>21</v>
@@ -2365,8 +2445,21 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <f>22/30*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I6">
+        <v>521</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>21</v>
@@ -2380,8 +2473,18 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <f>22/30*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I7">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>21</v>
@@ -2395,8 +2498,18 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I8">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>21</v>
@@ -2410,8 +2523,18 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I9">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>21</v>
@@ -2425,8 +2548,18 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <f>25/30*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>21</v>
@@ -2440,8 +2573,18 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <f>25/30*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I11">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>21</v>
@@ -2455,8 +2598,18 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <f>28/30*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I12">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>21</v>
@@ -2470,51 +2623,1589 @@
       <c r="F13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <f>28/30*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <f>23/30*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I14">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <f>23/30*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <f>27/30*100</f>
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <f>27/30*100</f>
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I18">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I19">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I22">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I23">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I24">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <f>29/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50">
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <f>22/50*100</f>
+        <v>44</v>
+      </c>
+      <c r="I50">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51">
+        <v>22</v>
+      </c>
+      <c r="H51">
+        <f>22/50*100</f>
+        <v>44</v>
+      </c>
+      <c r="I51">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52">
+        <v>28</v>
+      </c>
+      <c r="H52">
+        <f>28/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="I52">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53">
+        <v>28</v>
+      </c>
+      <c r="H53">
+        <f>28/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="I53">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54">
+        <f>30/50*100</f>
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <f>30/50*100</f>
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <f>33/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I56">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57">
+        <v>33</v>
+      </c>
+      <c r="H57">
+        <f>33/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I57">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58">
+        <v>31</v>
+      </c>
+      <c r="H58">
+        <f>31/50*100</f>
+        <v>62</v>
+      </c>
+      <c r="I58">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59">
+        <v>31</v>
+      </c>
+      <c r="H59">
+        <f>31/50*100</f>
+        <v>62</v>
+      </c>
+      <c r="I59">
+        <v>933</v>
+      </c>
+      <c r="J59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60">
+        <v>33</v>
+      </c>
+      <c r="H60">
+        <f>33/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I60">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61">
+        <v>33</v>
+      </c>
+      <c r="H61">
+        <f>33/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I61">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <f>29/50*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I62">
+        <v>907</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <f>29/50*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I63">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64">
+        <v>34</v>
+      </c>
+      <c r="H64">
+        <f>34/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I64">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65">
+        <v>34</v>
+      </c>
+      <c r="H65">
+        <f>34/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I65">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <f>35/50*100</f>
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67">
+        <v>35</v>
+      </c>
+      <c r="H67">
+        <f>35/50*100</f>
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68">
+        <v>34</v>
+      </c>
+      <c r="H68">
+        <f>34/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I68">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69">
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <f>34/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70">
+        <v>38</v>
+      </c>
+      <c r="H70">
+        <f>38/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="I70">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71">
+        <v>38</v>
+      </c>
+      <c r="H71">
+        <f>38/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72">
+        <v>36</v>
+      </c>
+      <c r="H72">
+        <f>36/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73">
+        <v>36</v>
+      </c>
+      <c r="H73">
+        <f>36/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98">
+        <v>34</v>
+      </c>
+      <c r="H98">
+        <f>34/60*100</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="I98">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99">
+        <v>34</v>
+      </c>
+      <c r="H99">
+        <f>34/60*100</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="I99">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <f>41/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I100">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101">
+        <v>41</v>
+      </c>
+      <c r="H101">
+        <f>41/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I101">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102">
+        <v>44</v>
+      </c>
+      <c r="H102">
+        <f>44/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I102">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103">
+        <v>44</v>
+      </c>
+      <c r="H103">
+        <f>44/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I103">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104">
+        <v>44</v>
+      </c>
+      <c r="H104">
+        <f>44/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I104">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105">
+        <v>44</v>
+      </c>
+      <c r="H105">
+        <f>44/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I105">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106">
+        <v>46</v>
+      </c>
+      <c r="H106">
+        <f>46/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I106">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107">
+        <v>46</v>
+      </c>
+      <c r="H107">
+        <f>46/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I107">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108">
+        <v>41</v>
+      </c>
+      <c r="H108">
+        <f>41/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I108">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109">
+        <v>41</v>
+      </c>
+      <c r="H109">
+        <f>41/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I109">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110">
+        <v>39</v>
+      </c>
+      <c r="H110">
+        <f>39/60*100</f>
+        <v>65</v>
+      </c>
+      <c r="I110">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111">
+        <v>39</v>
+      </c>
+      <c r="H111">
+        <f>39/60*100</f>
+        <v>65</v>
+      </c>
+      <c r="I111">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <f>40/60*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I112">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <f>40/60*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I113">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114">
+        <v>48</v>
+      </c>
+      <c r="H114">
+        <f>48/60*100</f>
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115">
+        <v>48</v>
+      </c>
+      <c r="H115">
+        <f>48/60*100</f>
+        <v>80</v>
+      </c>
+      <c r="I115">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116">
+        <v>41</v>
+      </c>
+      <c r="H116">
+        <f>41/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I116">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117">
+        <v>41</v>
+      </c>
+      <c r="H117">
+        <f>41/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I117">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118">
+        <v>46</v>
+      </c>
+      <c r="H118">
+        <f>46/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I118">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119">
+        <v>46</v>
+      </c>
+      <c r="H119">
+        <f>46/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I119">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120">
+        <v>42</v>
+      </c>
+      <c r="H120">
+        <f>42/60*100</f>
+        <v>70</v>
+      </c>
+      <c r="I120">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121">
+        <v>42</v>
+      </c>
+      <c r="H121">
+        <f>42/60*100</f>
+        <v>70</v>
+      </c>
+      <c r="I121">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="xyz" sheetId="3" r:id="rId1"/>
@@ -12,11 +12,6 @@
     <sheet name="astar" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -55,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="35">
   <si>
     <t>Netlist</t>
   </si>
@@ -166,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +182,33 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,17 +223,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -227,9 +256,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +271,7 @@
     <tableColumn id="4" name="A* heuristiek"/>
     <tableColumn id="5" name="Hillclimber?"/>
     <tableColumn id="6" name="Aantal wires"/>
-    <tableColumn id="7" name="Percentage wires" dataDxfId="0"/>
+    <tableColumn id="7" name="Percentage wires" dataDxfId="1"/>
     <tableColumn id="8" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -271,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:I28" totalsRowShown="0">
-  <autoFilter ref="A1:I28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="A1:I146" totalsRowShown="0">
+  <autoFilter ref="A1:I146"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Chip"/>
     <tableColumn id="2" name="Netlist"/>
@@ -281,7 +307,9 @@
     <tableColumn id="5" name="Layers?"/>
     <tableColumn id="3" name="Hillclimbing?"/>
     <tableColumn id="8" name="Aantal wires"/>
-    <tableColumn id="7" name="Percentage wires"/>
+    <tableColumn id="7" name="Percentage wires" dataDxfId="0">
+      <calculatedColumnFormula>Tabel13[[#This Row],[Aantal wires]]/40*100</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="9" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -587,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,600 +657,1009 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="5">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H2" s="5">
+        <v>419</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5">
         <v>30</v>
       </c>
-      <c r="G3">
-        <f>Tabel3[[#This Row],[Aantal wires]]/30</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="H3" s="5">
         <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="H6" s="5">
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="5">
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="5">
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="F9" s="3">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>72.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>591</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
         <v>35</v>
       </c>
-      <c r="G10">
-        <f>Tabel3[[#This Row],[Aantal wires]]/40</f>
-        <v>0.875</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H10" s="3">
         <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Tabel3[[#This Row],[Aantal wires]]/40*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="F16" s="5">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="H16" s="5">
+        <v>917</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5">
         <v>38</v>
       </c>
-      <c r="G17" s="2">
-        <f>Tabel3[[#This Row],[Aantal wires]]/50</f>
-        <v>0.76</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="H17" s="5">
         <v>915</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5">
+        <v>38</v>
+      </c>
+      <c r="G18" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="H18" s="5">
+        <v>855</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5">
+        <v>38</v>
+      </c>
+      <c r="G19" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="H19" s="5">
+        <v>915</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5">
+        <v>38</v>
+      </c>
+      <c r="G20" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="H20" s="5">
+        <v>863</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5">
+        <v>38</v>
+      </c>
+      <c r="G21" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="H21" s="5">
+        <v>915</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5">
+        <v>38</v>
+      </c>
+      <c r="G22" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="H22" s="5">
+        <v>817</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>2</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="F23" s="3">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>48</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1116</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3">
         <v>39</v>
       </c>
-      <c r="G24" s="2">
-        <f>Tabel3[[#This Row],[Aantal wires]]/50</f>
-        <v>0.78</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>78</v>
+      </c>
+      <c r="H24" s="3">
         <v>1082</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3">
+        <v>39</v>
+      </c>
+      <c r="G25" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>78</v>
+      </c>
+      <c r="H25" s="3">
+        <v>968</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3">
+        <v>39</v>
+      </c>
+      <c r="G26" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>78</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1082</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3">
+        <v>39</v>
+      </c>
+      <c r="G27" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>78</v>
+      </c>
+      <c r="H27" s="3">
+        <v>970</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3">
+        <v>40</v>
+      </c>
+      <c r="G28" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>80</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1078</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3">
+        <v>40</v>
+      </c>
+      <c r="G29" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/50*100</f>
+        <v>80</v>
+      </c>
+      <c r="H29" s="3">
+        <v>976</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="F30" s="5">
+        <v>30</v>
+      </c>
+      <c r="G30" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>50</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1174</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="5">
         <v>43</v>
       </c>
-      <c r="G31" s="2">
-        <f>Tabel3[[#This Row],[Aantal wires]]/60</f>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H31" s="5">
         <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43</v>
+      </c>
+      <c r="G32" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1064</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43</v>
+      </c>
+      <c r="G33" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1178</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5">
+        <v>43</v>
+      </c>
+      <c r="G34" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1074</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43</v>
+      </c>
+      <c r="G35" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1178</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="2"/>
+      <c r="E36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43</v>
+      </c>
+      <c r="G36" s="6">
+        <f>Tabel3[[#This Row],[Aantal wires]]/60*100</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1092</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
+        <v>26</v>
+      </c>
+      <c r="G37" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="3">
         <v>39</v>
       </c>
-      <c r="G37" s="2">
-        <f>Tabel3[[#This Row],[Aantal wires]]/70</f>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="H37">
+      <c r="G38" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="H38" s="3">
         <v>1555</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3">
+        <v>39</v>
+      </c>
+      <c r="G39" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1499</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="3">
+        <v>39</v>
+      </c>
+      <c r="G40" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1555</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="3">
+        <v>39</v>
+      </c>
+      <c r="G41" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1511</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="3">
+        <v>40</v>
+      </c>
+      <c r="G42" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1567</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="3">
+        <v>40</v>
+      </c>
+      <c r="G43" s="4">
+        <f>Tabel3[[#This Row],[Aantal wires]]/70*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1521</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -2220,12 +2657,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2238,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2254,10 +2685,9 @@
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2286,240 +2716,3917 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="I2" s="5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="I3" s="5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>80</v>
+      </c>
+      <c r="I4" s="5">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H5" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>80</v>
+      </c>
+      <c r="I5" s="5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I6" s="5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I7" s="5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I8" s="5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I9" s="5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="5">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H10" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I10" s="5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
+      <c r="H11" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I11" s="5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I12" s="5">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="5">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I13" s="5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I14" s="5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="5">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I15" s="5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>90</v>
+      </c>
+      <c r="I16" s="5">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>90</v>
+      </c>
+      <c r="I17" s="5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5">
+        <v>29</v>
+      </c>
+      <c r="H18" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I18" s="5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="5">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I19" s="5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="5">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="5">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>100</v>
+      </c>
+      <c r="I21" s="5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="5">
+        <v>29</v>
+      </c>
+      <c r="H22" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I22" s="5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="5">
+        <v>29</v>
+      </c>
+      <c r="H23" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I23" s="5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="5">
+        <v>29</v>
+      </c>
+      <c r="H24" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I24" s="5">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="5">
+        <v>29</v>
+      </c>
+      <c r="H25" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I25" s="5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="3">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I26" s="3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="3">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I27" s="3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="3">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>67.5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="3">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>67.5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>34</v>
+      </c>
+      <c r="H30" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>85</v>
+      </c>
+      <c r="I30" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="3">
+        <v>34</v>
+      </c>
+      <c r="H31" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>85</v>
+      </c>
+      <c r="I31" s="3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="3">
+        <v>32</v>
+      </c>
+      <c r="H32" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>80</v>
+      </c>
+      <c r="I32" s="3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>80</v>
+      </c>
+      <c r="I33" s="3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="3">
+        <v>36</v>
+      </c>
+      <c r="H34" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>90</v>
+      </c>
+      <c r="I34" s="3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="3">
+        <v>36</v>
+      </c>
+      <c r="H35" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>90</v>
+      </c>
+      <c r="I35" s="3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="3">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>80</v>
+      </c>
+      <c r="I36" s="3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="3">
+        <v>32</v>
+      </c>
+      <c r="H37" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>80</v>
+      </c>
+      <c r="I37" s="3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="3">
+        <v>30</v>
+      </c>
+      <c r="H38" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>75</v>
+      </c>
+      <c r="I38" s="3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="3">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>75</v>
+      </c>
+      <c r="I39" s="3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="3">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>82.5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="3">
+        <v>33</v>
+      </c>
+      <c r="H41" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>82.5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="3">
+        <v>38</v>
+      </c>
+      <c r="H42" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>95</v>
+      </c>
+      <c r="I42" s="3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="3">
+        <v>38</v>
+      </c>
+      <c r="H43" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>95</v>
+      </c>
+      <c r="I43" s="3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="3">
+        <v>36</v>
+      </c>
+      <c r="H44" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>90</v>
+      </c>
+      <c r="I44" s="3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="3">
+        <v>36</v>
+      </c>
+      <c r="H45" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>90</v>
+      </c>
+      <c r="I45" s="3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="3">
+        <v>40</v>
+      </c>
+      <c r="H46" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="3">
+        <v>40</v>
+      </c>
+      <c r="H47" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="3">
+        <v>34</v>
+      </c>
+      <c r="H48" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>85</v>
+      </c>
+      <c r="I48" s="3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="3">
+        <v>34</v>
+      </c>
+      <c r="H49" s="3">
+        <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
+        <v>85</v>
+      </c>
+      <c r="I49" s="3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="5">
+        <v>22</v>
+      </c>
+      <c r="H50" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>44</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="5">
+        <v>22</v>
+      </c>
+      <c r="H51" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>44</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="5">
+        <v>28</v>
+      </c>
+      <c r="H52" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="5">
+        <v>28</v>
+      </c>
+      <c r="H53" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="5">
+        <v>30</v>
+      </c>
+      <c r="H54" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>60</v>
+      </c>
+      <c r="I54" s="5">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="5">
+        <v>30</v>
+      </c>
+      <c r="H55" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>60</v>
+      </c>
+      <c r="I55" s="5">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="5">
+        <v>33</v>
+      </c>
+      <c r="H56" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="5">
+        <v>33</v>
+      </c>
+      <c r="H57" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="5">
+        <v>31</v>
+      </c>
+      <c r="H58" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>62</v>
+      </c>
+      <c r="I58" s="5">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="5">
+        <v>31</v>
+      </c>
+      <c r="H59" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>62</v>
+      </c>
+      <c r="I59" s="5">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="5">
+        <v>33</v>
+      </c>
+      <c r="H60" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="5">
+        <v>33</v>
+      </c>
+      <c r="H61" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I61" s="5">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="5">
+        <v>29</v>
+      </c>
+      <c r="H62" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I62" s="5">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="5">
+        <v>29</v>
+      </c>
+      <c r="H63" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I63" s="5">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="5">
+        <v>34</v>
+      </c>
+      <c r="H64" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="5">
+        <v>34</v>
+      </c>
+      <c r="H65" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I65" s="5">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="5">
+        <v>35</v>
+      </c>
+      <c r="H66" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>70</v>
+      </c>
+      <c r="I66" s="5">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="5">
+        <v>35</v>
+      </c>
+      <c r="H67" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>70</v>
+      </c>
+      <c r="I67" s="5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="5">
+        <v>34</v>
+      </c>
+      <c r="H68" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="5">
+        <v>34</v>
+      </c>
+      <c r="H69" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>68</v>
+      </c>
+      <c r="I69" s="5">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="5">
+        <v>38</v>
+      </c>
+      <c r="H70" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="I70" s="5">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="5">
+        <v>38</v>
+      </c>
+      <c r="H71" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="I71" s="5">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="5">
+        <v>36</v>
+      </c>
+      <c r="H72" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="5">
+        <v>36</v>
+      </c>
+      <c r="H73" s="5">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="3">
+        <v>29</v>
+      </c>
+      <c r="H74" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="3">
+        <v>29</v>
+      </c>
+      <c r="H75" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="3">
+        <v>33</v>
+      </c>
+      <c r="H76" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="3">
+        <v>33</v>
+      </c>
+      <c r="H77" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="3">
+        <v>30</v>
+      </c>
+      <c r="H78" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>60</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="3">
+        <v>30</v>
+      </c>
+      <c r="H79" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>60</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="3">
+        <v>36</v>
+      </c>
+      <c r="H80" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="3">
+        <v>36</v>
+      </c>
+      <c r="H81" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="3">
+        <v>32</v>
+      </c>
+      <c r="H82" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>64</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="3">
+        <v>32</v>
+      </c>
+      <c r="H83" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>64</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="3">
+        <v>37</v>
+      </c>
+      <c r="H84" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>74</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="3">
+        <v>37</v>
+      </c>
+      <c r="H85" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>74</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="3">
+        <v>33</v>
+      </c>
+      <c r="H86" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I86" s="3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="3">
+        <v>33</v>
+      </c>
+      <c r="H87" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>66</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="3">
+        <v>36</v>
+      </c>
+      <c r="H88" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="3">
+        <v>36</v>
+      </c>
+      <c r="H89" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>72</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="3">
+        <v>39</v>
+      </c>
+      <c r="H90" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>78</v>
+      </c>
+      <c r="I90" s="3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="3">
+        <v>39</v>
+      </c>
+      <c r="H91" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>78</v>
+      </c>
+      <c r="I91" s="3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="3">
+        <v>38</v>
+      </c>
+      <c r="H92" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="3">
+        <v>38</v>
+      </c>
+      <c r="H93" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>76</v>
+      </c>
+      <c r="I93" s="3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="3">
+        <v>41</v>
+      </c>
+      <c r="H94" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>82</v>
+      </c>
+      <c r="I94" s="3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="3">
+        <v>41</v>
+      </c>
+      <c r="H95" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>82</v>
+      </c>
+      <c r="I95" s="3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="3">
+        <v>32</v>
+      </c>
+      <c r="H96" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>64</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="3">
+        <v>32</v>
+      </c>
+      <c r="H97" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
+        <v>64</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>2</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="5">
+        <v>34</v>
+      </c>
+      <c r="H98" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="I98" s="5">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="5">
+        <v>34</v>
+      </c>
+      <c r="H99" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="5">
+        <v>41</v>
+      </c>
+      <c r="H100" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="5">
+        <v>41</v>
+      </c>
+      <c r="H101" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="5">
+        <v>44</v>
+      </c>
+      <c r="H102" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="5">
+        <v>44</v>
+      </c>
+      <c r="H103" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I103" s="5">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G104" s="5">
+        <v>44</v>
+      </c>
+      <c r="H104" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I104" s="5">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="5">
+        <v>44</v>
+      </c>
+      <c r="H105" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="5">
+        <v>46</v>
+      </c>
+      <c r="H106" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I106" s="5">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="5">
+        <v>46</v>
+      </c>
+      <c r="H107" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="5">
+        <v>41</v>
+      </c>
+      <c r="H108" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I108" s="5">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="5">
+        <v>41</v>
+      </c>
+      <c r="H109" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I109" s="5">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="5">
+        <v>39</v>
+      </c>
+      <c r="H110" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>65</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="5">
+        <v>39</v>
+      </c>
+      <c r="H111" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>65</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="5">
+        <v>40</v>
+      </c>
+      <c r="H112" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I112" s="5">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="5">
+        <v>40</v>
+      </c>
+      <c r="H113" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114" s="5">
+        <v>48</v>
+      </c>
+      <c r="H114" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>80</v>
+      </c>
+      <c r="I114" s="5">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="5">
+        <v>48</v>
+      </c>
+      <c r="H115" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>80</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="5">
+        <v>41</v>
+      </c>
+      <c r="H116" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" s="5">
+        <v>41</v>
+      </c>
+      <c r="H117" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="I117" s="5">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="5">
+        <v>46</v>
+      </c>
+      <c r="H118" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I118" s="5">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="5">
+        <v>46</v>
+      </c>
+      <c r="H119" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I119" s="5">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="5">
+        <v>42</v>
+      </c>
+      <c r="H120" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>70</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="5">
+        <v>42</v>
+      </c>
+      <c r="H121" s="6">
+        <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
+        <v>70</v>
+      </c>
+      <c r="I121" s="5">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>2</v>
+      </c>
+      <c r="B122" s="3">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="3">
+        <v>27</v>
+      </c>
+      <c r="H122" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>38.571428571428577</v>
+      </c>
+      <c r="I122" s="3">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="3">
+        <v>27</v>
+      </c>
+      <c r="H123" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>38.571428571428577</v>
+      </c>
+      <c r="I123" s="3">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="3">
+        <v>39</v>
+      </c>
+      <c r="H124" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="3">
+        <v>39</v>
+      </c>
+      <c r="H125" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="3">
+        <v>40</v>
+      </c>
+      <c r="H126" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="I126" s="3">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="3">
+        <v>40</v>
+      </c>
+      <c r="H127" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="3">
+        <v>42</v>
+      </c>
+      <c r="H128" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>60</v>
+      </c>
+      <c r="I128" s="3">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="3">
+        <v>42</v>
+      </c>
+      <c r="H129" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>60</v>
+      </c>
+      <c r="I129" s="3">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="3">
+        <v>39</v>
+      </c>
+      <c r="H130" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="3">
+        <v>39</v>
+      </c>
+      <c r="H131" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="3">
+        <v>42</v>
+      </c>
+      <c r="H132" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>60</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="3">
+        <v>42</v>
+      </c>
+      <c r="H133" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>60</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G134" s="3">
+        <v>37</v>
+      </c>
+      <c r="H134" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>52.857142857142861</v>
+      </c>
+      <c r="I134" s="3">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" s="3">
+        <v>37</v>
+      </c>
+      <c r="H135" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>52.857142857142861</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G136" s="3">
+        <v>41</v>
+      </c>
+      <c r="H136" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="I136" s="3">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="3">
+        <v>41</v>
+      </c>
+      <c r="H137" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="I137" s="3">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="3">
+        <v>47</v>
+      </c>
+      <c r="H138" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>67.142857142857139</v>
+      </c>
+      <c r="I138" s="3">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" s="3">
+        <v>47</v>
+      </c>
+      <c r="H139" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>67.142857142857139</v>
+      </c>
+      <c r="I139" s="3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G140" s="3">
+        <v>46</v>
+      </c>
+      <c r="H140" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>65.714285714285708</v>
+      </c>
+      <c r="I140" s="3">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" s="3">
+        <v>46</v>
+      </c>
+      <c r="H141" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>65.714285714285708</v>
+      </c>
+      <c r="I141" s="3">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="3">
+        <v>45</v>
+      </c>
+      <c r="H142" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" s="3">
+        <v>45</v>
+      </c>
+      <c r="H143" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="I143" s="3">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G144" s="3">
+        <v>48</v>
+      </c>
+      <c r="H144" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="I144" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="3"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" s="3">
+        <v>48</v>
+      </c>
+      <c r="H145" s="4">
+        <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="I145" s="3">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2 H3:H25 H50:H141 H142:H145" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vince/Documents/cjips/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C33BA-7B63-C646-BD77-DBC76A55DE4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6573F16A-2D80-014E-BDCE-1450FA7FF6A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="36">
   <si>
     <t>Netlist</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>manhattan_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1769,7 +1772,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2780,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5599,9 +5602,8 @@
         <v>28</v>
       </c>
       <c r="G109" s="3"/>
-      <c r="H109" s="4">
-        <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
+      <c r="H109" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="I109" s="3"/>
     </row>

--- a/data/Resultaten_fase1.xlsx
+++ b/data/Resultaten_fase1.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vince/Documents/cjips/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\Programmeertheorie\sjips\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C33BA-7B63-C646-BD77-DBC76A55DE4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DEE776-BD88-412A-A9C2-551FECB68F9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9120" yWindow="3204" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xyz" sheetId="3" r:id="rId1"/>
     <sheet name="oude xyz" sheetId="1" r:id="rId2"/>
     <sheet name="astar" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -625,22 +632,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -666,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -693,7 +700,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -716,7 +723,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -739,7 +746,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -762,7 +769,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -785,7 +792,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -808,7 +815,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -831,7 +838,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -843,14 +850,18 @@
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>26</v>
+      </c>
       <c r="G9" s="6">
         <f>Tabel3[[#This Row],[Aantal wires]]/30*100</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H9" s="5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -877,7 +888,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -900,7 +911,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -923,7 +934,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -946,7 +957,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -969,7 +980,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -992,7 +1003,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -1015,7 +1026,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -1027,11 +1038,18 @@
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4">
+        <f>31/40*100</f>
+        <v>77.5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -1081,7 +1099,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -1104,7 +1122,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -1127,7 +1145,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -1150,7 +1168,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -1173,7 +1191,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -1196,7 +1214,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -1208,11 +1226,18 @@
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="5">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6">
+        <f>31/50*100</f>
+        <v>62</v>
+      </c>
+      <c r="H25" s="5">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -1239,7 +1264,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
@@ -1262,7 +1287,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
@@ -1285,7 +1310,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
@@ -1308,7 +1333,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
@@ -1331,7 +1356,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
@@ -1354,7 +1379,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
@@ -1377,7 +1402,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
@@ -1389,11 +1414,18 @@
       <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="3">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4">
+        <f>31/50*100</f>
+        <v>62</v>
+      </c>
+      <c r="H33" s="3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -1420,7 +1452,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -1443,7 +1475,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -1466,7 +1498,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
@@ -1489,7 +1521,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
@@ -1512,7 +1544,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
@@ -1535,7 +1567,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
@@ -1558,7 +1590,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
@@ -1570,11 +1602,18 @@
       <c r="E41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F41" s="5">
+        <v>38</v>
+      </c>
+      <c r="G41" s="6">
+        <f>38/60*100</f>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -1601,7 +1640,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
@@ -1624,7 +1663,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
@@ -1647,7 +1686,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
@@ -1670,7 +1709,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
@@ -1693,7 +1732,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
@@ -1716,7 +1755,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
@@ -1739,7 +1778,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
@@ -1751,9 +1790,16 @@
       <c r="E49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="3">
+        <v>36</v>
+      </c>
+      <c r="G49" s="4">
+        <f>36/70*100</f>
+        <v>51.428571428571423</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1423</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,19 +1818,19 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.83203125" customWidth="1"/>
+    <col min="1" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1865,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +1963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1943,7 +1989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +2067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2100,7 +2146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2289,7 +2335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2343,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2370,7 +2416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2397,7 +2443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +2497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2505,7 +2551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2532,7 +2578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2559,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2706,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2736,7 +2782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2780,23 +2826,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="D148" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.83203125" customWidth="1"/>
+    <col min="1" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2825,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2855,7 +2901,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5" t="s">
@@ -2881,7 +2927,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5" t="s">
@@ -2907,7 +2953,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
@@ -2933,7 +2979,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
@@ -2959,7 +3005,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
@@ -2985,7 +3031,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
@@ -3011,7 +3057,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
@@ -3037,7 +3083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
@@ -3063,7 +3109,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
@@ -3089,7 +3135,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
@@ -3115,7 +3161,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
@@ -3141,7 +3187,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
@@ -3167,7 +3213,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
@@ -3193,7 +3239,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
@@ -3219,7 +3265,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
@@ -3245,7 +3291,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
@@ -3271,7 +3317,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
@@ -3297,7 +3343,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
@@ -3323,7 +3369,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
@@ -3349,7 +3395,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
@@ -3375,7 +3421,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
@@ -3401,7 +3447,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
@@ -3427,7 +3473,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
@@ -3453,7 +3499,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
@@ -3468,14 +3514,18 @@
       <c r="F26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>28</v>
+      </c>
       <c r="H26" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="I26" s="5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
@@ -3490,14 +3540,18 @@
       <c r="F27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5">
+        <v>30</v>
+      </c>
       <c r="H27" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/30*100</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I27" s="5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
@@ -3523,7 +3577,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -3553,7 +3607,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
@@ -3579,7 +3633,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="3" t="s">
@@ -3605,7 +3659,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="3" t="s">
@@ -3631,7 +3685,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="3" t="s">
@@ -3657,7 +3711,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="3" t="s">
@@ -3683,7 +3737,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="3" t="s">
@@ -3709,7 +3763,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="3" t="s">
@@ -3735,7 +3789,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="3" t="s">
@@ -3761,7 +3815,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="3" t="s">
@@ -3787,7 +3841,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="3" t="s">
@@ -3813,7 +3867,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="3" t="s">
@@ -3839,7 +3893,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="3" t="s">
@@ -3865,7 +3919,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="3" t="s">
@@ -3891,7 +3945,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="3" t="s">
@@ -3917,7 +3971,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="3" t="s">
@@ -3943,7 +3997,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
@@ -3969,7 +4023,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="3" t="s">
@@ -3995,7 +4049,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="3" t="s">
@@ -4021,7 +4075,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="3" t="s">
@@ -4047,7 +4101,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="3" t="s">
@@ -4073,7 +4127,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="3" t="s">
@@ -4099,7 +4153,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="3" t="s">
@@ -4125,7 +4179,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="3" t="s">
@@ -4151,7 +4205,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="3" t="s">
@@ -4166,14 +4220,18 @@
       <c r="F53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3">
+        <v>33</v>
+      </c>
       <c r="H53" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82.5</v>
+      </c>
+      <c r="I53" s="3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="3" t="s">
@@ -4188,14 +4246,18 @@
       <c r="F54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="3">
+        <v>38</v>
+      </c>
       <c r="H54" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="I54" s="3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="3" t="s">
@@ -4210,14 +4272,18 @@
       <c r="F55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="3">
+        <v>40</v>
+      </c>
       <c r="H55" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/40*100</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I55" s="3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>1</v>
       </c>
@@ -4247,7 +4313,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
@@ -4273,7 +4339,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
@@ -4299,7 +4365,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
@@ -4325,7 +4391,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
@@ -4351,7 +4417,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
@@ -4377,7 +4443,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
@@ -4403,7 +4469,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
@@ -4429,7 +4495,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
@@ -4455,7 +4521,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
@@ -4481,7 +4547,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
@@ -4507,7 +4573,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
@@ -4533,7 +4599,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
@@ -4559,7 +4625,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
@@ -4585,7 +4651,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
@@ -4611,7 +4677,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
@@ -4637,7 +4703,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
@@ -4663,7 +4729,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
@@ -4689,7 +4755,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
@@ -4715,7 +4781,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
@@ -4741,7 +4807,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
@@ -4767,7 +4833,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
@@ -4793,7 +4859,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
@@ -4819,7 +4885,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
@@ -4845,7 +4911,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
@@ -4860,14 +4926,18 @@
       <c r="F80" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5">
+        <v>36</v>
+      </c>
       <c r="H80" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="I80" s="5">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
@@ -4882,14 +4952,18 @@
       <c r="F81" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="5">
+        <v>44</v>
+      </c>
       <c r="H81" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I81" s="5">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
@@ -4904,14 +4978,18 @@
       <c r="F82" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="5">
+        <v>45</v>
+      </c>
       <c r="H82" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I82" s="5">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -4941,7 +5019,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="3" t="s">
@@ -4967,7 +5045,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="3" t="s">
@@ -4993,7 +5071,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="3" t="s">
@@ -5019,7 +5097,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="3" t="s">
@@ -5045,7 +5123,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="3" t="s">
@@ -5071,7 +5149,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="3" t="s">
@@ -5097,7 +5175,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="3" t="s">
@@ -5123,7 +5201,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="3" t="s">
@@ -5149,7 +5227,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="3" t="s">
@@ -5175,7 +5253,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="3" t="s">
@@ -5201,7 +5279,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="3" t="s">
@@ -5227,7 +5305,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="3" t="s">
@@ -5253,7 +5331,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="3" t="s">
@@ -5279,7 +5357,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="3" t="s">
@@ -5305,7 +5383,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="3" t="s">
@@ -5331,7 +5409,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="3" t="s">
@@ -5357,7 +5435,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="3" t="s">
@@ -5383,7 +5461,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="3" t="s">
@@ -5409,7 +5487,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="3" t="s">
@@ -5435,7 +5513,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="8"/>
       <c r="C103" s="3" t="s">
@@ -5461,7 +5539,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="8"/>
       <c r="C104" s="3" t="s">
@@ -5487,7 +5565,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="8"/>
       <c r="C105" s="3" t="s">
@@ -5513,7 +5591,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="8"/>
       <c r="C106" s="3" t="s">
@@ -5539,7 +5617,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="8"/>
       <c r="C107" s="3" t="s">
@@ -5554,14 +5632,18 @@
       <c r="F107" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="3">
+        <v>40</v>
+      </c>
       <c r="H107" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I107" s="3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="8"/>
       <c r="C108" s="3" t="s">
@@ -5576,14 +5658,18 @@
       <c r="F108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G108" s="3"/>
+      <c r="G108" s="3">
+        <v>45</v>
+      </c>
       <c r="H108" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I108" s="3">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="8"/>
       <c r="C109" s="3" t="s">
@@ -5598,14 +5684,18 @@
       <c r="F109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="3">
+        <v>47</v>
+      </c>
       <c r="H109" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/50*100</f>
-        <v>0</v>
-      </c>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I109" s="3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>2</v>
       </c>
@@ -5635,7 +5725,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5" t="s">
@@ -5661,7 +5751,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
@@ -5687,7 +5777,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5" t="s">
@@ -5713,7 +5803,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5" t="s">
@@ -5739,7 +5829,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5" t="s">
@@ -5765,7 +5855,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
@@ -5791,7 +5881,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
@@ -5817,7 +5907,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5" t="s">
@@ -5843,7 +5933,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5" t="s">
@@ -5869,7 +5959,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5" t="s">
@@ -5895,7 +5985,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5" t="s">
@@ -5921,7 +6011,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5" t="s">
@@ -5947,7 +6037,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5" t="s">
@@ -5973,7 +6063,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5" t="s">
@@ -5999,7 +6089,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
@@ -6025,7 +6115,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5" t="s">
@@ -6051,7 +6141,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5" t="s">
@@ -6077,7 +6167,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
@@ -6103,7 +6193,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5" t="s">
@@ -6129,7 +6219,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5" t="s">
@@ -6155,7 +6245,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5" t="s">
@@ -6181,7 +6271,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5" t="s">
@@ -6207,7 +6297,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5" t="s">
@@ -6233,7 +6323,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5" t="s">
@@ -6248,14 +6338,18 @@
       <c r="F134" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G134" s="5"/>
+      <c r="G134" s="5">
+        <v>46</v>
+      </c>
       <c r="H134" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
-        <v>0</v>
-      </c>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="I134" s="5">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5" t="s">
@@ -6270,14 +6364,18 @@
       <c r="F135" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G135" s="5"/>
+      <c r="G135" s="5">
+        <v>51</v>
+      </c>
       <c r="H135" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
-        <v>0</v>
-      </c>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="I135" s="5">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
@@ -6292,14 +6390,18 @@
       <c r="F136" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G136" s="5"/>
+      <c r="G136" s="5">
+        <v>53</v>
+      </c>
       <c r="H136" s="6">
         <f>Tabel13[[#This Row],[Aantal wires]]/60*100</f>
-        <v>0</v>
-      </c>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="I136" s="5">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>2</v>
       </c>
@@ -6329,7 +6431,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3" t="s">
@@ -6355,7 +6457,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
@@ -6381,7 +6483,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3" t="s">
@@ -6407,7 +6509,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
@@ -6433,7 +6535,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
@@ -6459,7 +6561,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3" t="s">
@@ -6485,7 +6587,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3" t="s">
@@ -6511,7 +6613,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
@@ -6537,7 +6639,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="9"/>
       <c r="C146" s="3" t="s">
@@ -6563,7 +6665,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="9"/>
       <c r="C147" s="3" t="s">
@@ -6589,7 +6691,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="9"/>
       <c r="C148" s="3" t="s">
@@ -6615,7 +6717,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="9"/>
       <c r="C149" s="3" t="s">
@@ -6641,7 +6743,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="9"/>
       <c r="C150" s="3" t="s">
@@ -6667,7 +6769,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="9"/>
       <c r="C151" s="3" t="s">
@@ -6693,7 +6795,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="9"/>
       <c r="C152" s="3" t="s">
@@ -6719,7 +6821,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="9"/>
       <c r="C153" s="3" t="s">
@@ -6745,7 +6847,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="9"/>
       <c r="C154" s="3" t="s">
@@ -6771,7 +6873,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="9"/>
       <c r="C155" s="3" t="s">
@@ -6797,7 +6899,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="9"/>
       <c r="C156" s="3" t="s">
@@ -6823,7 +6925,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="9"/>
       <c r="C157" s="3" t="s">
@@ -6849,7 +6951,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="9"/>
       <c r="C158" s="3" t="s">
@@ -6875,7 +6977,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="9"/>
       <c r="C159" s="3" t="s">
@@ -6901,7 +7003,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="9"/>
       <c r="C160" s="3" t="s">
@@ -6927,7 +7029,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="9"/>
       <c r="C161" s="3" t="s">
@@ -6942,14 +7044,18 @@
       <c r="F161" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G161" s="3"/>
+      <c r="G161" s="3">
+        <v>46</v>
+      </c>
       <c r="H161" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
-        <v>0</v>
-      </c>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65.714285714285708</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="9"/>
       <c r="C162" s="3" t="s">
@@ -6964,14 +7070,18 @@
       <c r="F162" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G162" s="3"/>
+      <c r="G162" s="3">
+        <v>54</v>
+      </c>
       <c r="H162" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
-        <v>0</v>
-      </c>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77.142857142857153</v>
+      </c>
+      <c r="I162" s="3">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="9"/>
       <c r="C163" s="3" t="s">
@@ -6986,146 +7096,150 @@
       <c r="F163" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G163" s="3"/>
+      <c r="G163" s="3">
+        <v>53</v>
+      </c>
       <c r="H163" s="4">
         <f>Tabel13[[#This Row],[Aantal wires]]/70*100</f>
-        <v>0</v>
-      </c>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75.714285714285708</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H208" s="2"/>
     </row>
   </sheetData>
